--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/Lab5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theresadejacimo/PycharmProjects/cs151-lab5-donovan_theresa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E955D01-8517-1C4D-BE7B-1C8D914E5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4B9907-EE33-664E-B702-F8F49D7BC0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="1060" yWindow="3540" windowWidth="28800" windowHeight="17300" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -31,6 +31,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+  <si>
+    <t>Options:</t>
+  </si>
+  <si>
+    <t>D=Deposit</t>
+  </si>
+  <si>
+    <t>W= Withdrawl</t>
+  </si>
+  <si>
+    <t>Starting Balance: 1000</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error </t>
+  </si>
+  <si>
+    <t>warning balance is negative</t>
+  </si>
+  <si>
+    <t>Warning balance is negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warning balance is negative </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -84,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,7 +156,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -230,7 +262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -372,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -380,14 +412,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127005B9-9F5E-0446-B242-2658EACB013E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <f>B2+B7</f>
+        <v>1050</v>
+      </c>
+      <c r="D2">
+        <v>1010</v>
+      </c>
+      <c r="E2">
+        <v>12037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <f>C2-B3</f>
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3">
+        <v>9083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>B1</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>B4+C2-C3</f>
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:E4" si="0">C4+D2-D3</f>
+        <v>-8940</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-5986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <f>B10+B15</f>
+        <v>1050</v>
+      </c>
+      <c r="D10">
+        <v>1010</v>
+      </c>
+      <c r="E10">
+        <v>12037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <f>C10-B11</f>
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <v>9083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <f>B15+B10-B11</f>
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <f>B12+C10-C11</f>
+        <v>1050</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="1">C12+D10-D11</f>
+        <v>-7940</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="2">D12+E10-E11</f>
+        <v>-4986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>-230</v>
+      </c>
+      <c r="D18">
+        <v>-1010</v>
+      </c>
+      <c r="E18">
+        <v>-12037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>-50</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>-10</v>
+      </c>
+      <c r="E19">
+        <v>-9083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>